--- a/idea-service/src/main/resources/idea-service.xlsx
+++ b/idea-service/src/main/resources/idea-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="240">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">subDomain</t>
   </si>
   <si>
-    <t xml:space="preserve">postedBy</t>
+    <t xml:space="preserve">poatedBy</t>
   </si>
   <si>
     <t xml:space="preserve">Modify a custom media player based on tkinter python </t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">gettogether</t>
   </si>
   <si>
-    <t xml:space="preserve">leela@gmail.com</t>
+    <t xml:space="preserve">pratyusha@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Magento 2 Olegnax bug fix </t>
@@ -123,23 +123,7 @@
     <t xml:space="preserve">c++,springmvc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">4 people</t>
   </si>
   <si>
     <t xml:space="preserve">Itangar</t>
@@ -151,7 +135,7 @@
     <t xml:space="preserve">productlaunch</t>
   </si>
   <si>
-    <t xml:space="preserve">ramya@gmail.com</t>
+    <t xml:space="preserve">rajni@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Create a window service to logon the windows user 
@@ -177,32 +161,13 @@
     <t xml:space="preserve">php,asp.net</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">7 people</t>
   </si>
   <si>
     <t xml:space="preserve">Dispur</t>
   </si>
   <si>
     <t xml:space="preserve">conferencemanagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mansi@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve"> Build custom framework included 3rd party framework 
@@ -229,23 +194,7 @@
     <t xml:space="preserve">MicrosoftFlow,Tech Savvy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">6 people</t>
   </si>
   <si>
     <t xml:space="preserve">Patna</t>
@@ -254,7 +203,7 @@
     <t xml:space="preserve">wedding</t>
   </si>
   <si>
-    <t xml:space="preserve">jyotishree@gmail.com</t>
+    <t xml:space="preserve">soumya@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Website HTML 5 pages </t>
@@ -285,7 +234,7 @@
     <t xml:space="preserve">database</t>
   </si>
   <si>
-    <t xml:space="preserve">ankita@gmail.com</t>
+    <t xml:space="preserve">kiran@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Need a website for my new recruitment firm and 
@@ -308,32 +257,13 @@
     <t xml:space="preserve">kafka,rabbitmq</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">3 people</t>
   </si>
   <si>
     <t xml:space="preserve">Panaji</t>
   </si>
   <si>
     <t xml:space="preserve">cybersecurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">develop SaaS solution to our website </t>
@@ -373,7 +303,7 @@
     <t xml:space="preserve">web</t>
   </si>
   <si>
-    <t xml:space="preserve">sruthi@gmail.com</t>
+    <t xml:space="preserve">shubha@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Real estate finder</t>
@@ -402,9 +332,6 @@
     <t xml:space="preserve">IoT</t>
   </si>
   <si>
-    <t xml:space="preserve">aditya@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robotics Automation </t>
   </si>
   <si>
@@ -425,7 +352,7 @@
     <t xml:space="preserve">network</t>
   </si>
   <si>
-    <t xml:space="preserve">megha@gmail.com</t>
+    <t xml:space="preserve">akansha@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Set up a cloud based instance of a piece of windows
@@ -455,7 +382,7 @@
     <t xml:space="preserve">android</t>
   </si>
   <si>
-    <t xml:space="preserve">kirtika@gamil.com</t>
+    <t xml:space="preserve">hindu@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Wordpress - WP Bakery Responsive issues with
@@ -483,7 +410,7 @@
     <t xml:space="preserve">cloudcomputing</t>
   </si>
   <si>
-    <t xml:space="preserve">shiv@gmail.com</t>
+    <t xml:space="preserve">bindu@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Integrate with PayPal subscriptions. </t>
@@ -508,7 +435,7 @@
     <t xml:space="preserve">bigdata</t>
   </si>
   <si>
-    <t xml:space="preserve">indira@gmail.com</t>
+    <t xml:space="preserve">sindhi@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Script to Dump Shopify Orders into MySQL Table -- 3 </t>
@@ -524,23 +451,7 @@
     <t xml:space="preserve">Svelte,Apple MDM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">8 people</t>
   </si>
   <si>
     <t xml:space="preserve">Thiruvananthapuram</t>
@@ -549,7 +460,7 @@
     <t xml:space="preserve">blockchain</t>
   </si>
   <si>
-    <t xml:space="preserve">naveen@gmail.com</t>
+    <t xml:space="preserve">nisha@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Car park software </t>
@@ -565,29 +476,13 @@
     <t xml:space="preserve">pycharm,eventmgmt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">9 people</t>
   </si>
   <si>
     <t xml:space="preserve">Bhopal</t>
   </si>
   <si>
-    <t xml:space="preserve">shailesh@gmail.com</t>
+    <t xml:space="preserve">pallavi@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Add https from http to an Instance in EC2 on Amazon </t>
@@ -605,7 +500,7 @@
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">pushkar@gamil.com</t>
+    <t xml:space="preserve">harika@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Google Shopping and Adwords Management for 
@@ -618,29 +513,13 @@
     <t xml:space="preserve">html,javascript</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
+    <t xml:space="preserve">2 people</t>
   </si>
   <si>
     <t xml:space="preserve">Imphal</t>
   </si>
   <si>
-    <t xml:space="preserve">raju@gmail.com</t>
+    <t xml:space="preserve">akhila@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Android studio app to IOS app</t>
@@ -655,7 +534,7 @@
     <t xml:space="preserve">Shillong</t>
   </si>
   <si>
-    <t xml:space="preserve">sushree@gamil.com</t>
+    <t xml:space="preserve">monika@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Modify php web app to include some basic features</t>
@@ -668,7 +547,7 @@
     <t xml:space="preserve">Aizawi</t>
   </si>
   <si>
-    <t xml:space="preserve">aniket@gmail.com</t>
+    <t xml:space="preserve">priyanka@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Website (joomla template 2.0) eight task updates in 
@@ -687,29 +566,10 @@
     <t xml:space="preserve">web designer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">people</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Kohima</t>
   </si>
   <si>
-    <t xml:space="preserve">vijay@gmail.com</t>
+    <t xml:space="preserve">shradda@mail.com</t>
   </si>
   <si>
     <t xml:space="preserve">App developer</t>
@@ -725,7 +585,7 @@
     <t xml:space="preserve">Bhubaneshwar</t>
   </si>
   <si>
-    <t xml:space="preserve">rakesh@gmail.com</t>
+    <t xml:space="preserve">nithya@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sharepoint workflow 2013 </t>
@@ -738,7 +598,7 @@
     <t xml:space="preserve">network engineer</t>
   </si>
   <si>
-    <t xml:space="preserve">jayshree@gmail.com</t>
+    <t xml:space="preserve">poornima@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Build My Click Funnels Product Funnels</t>
@@ -755,7 +615,7 @@
     <t xml:space="preserve">Jaipur</t>
   </si>
   <si>
-    <t xml:space="preserve">sivadatta@gmail.com</t>
+    <t xml:space="preserve">chethana@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">auto app , to register to a certain app , and grag api 
@@ -771,7 +631,7 @@
     <t xml:space="preserve">Gangtok</t>
   </si>
   <si>
-    <t xml:space="preserve">nishi@gmail.com</t>
+    <t xml:space="preserve">akshar@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Prestashop combination modify</t>
@@ -788,9 +648,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sneha@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Private Web Area</t>
@@ -810,15 +667,9 @@
     <t xml:space="preserve">blockchain developer</t>
   </si>
   <si>
-    <t xml:space="preserve">3 people</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hyderabad</t>
   </si>
   <si>
-    <t xml:space="preserve">samresh@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blockchain on WordPress private </t>
   </si>
   <si>
@@ -829,9 +680,6 @@
   </si>
   <si>
     <t xml:space="preserve">Agartala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anil@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Blockchain wallet application</t>
@@ -844,9 +692,6 @@
     <t xml:space="preserve">Dehradun</t>
   </si>
   <si>
-    <t xml:space="preserve">suresh@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Virtual Assistant</t>
   </si>
   <si>
@@ -858,9 +703,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lucknow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">praveen@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Integrate SaaS solution to our Cloud</t>
@@ -879,9 +721,6 @@
     <t xml:space="preserve">Kolkata</t>
   </si>
   <si>
-    <t xml:space="preserve">atul@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Telegram back end with node-red</t>
   </si>
   <si>
@@ -891,9 +730,6 @@
 Myself to understand the flow and make changes in future</t>
   </si>
   <si>
-    <t xml:space="preserve">hamzah@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRIDAL SHOWER</t>
   </si>
   <si>
@@ -905,18 +741,12 @@
     <t xml:space="preserve">data engineer</t>
   </si>
   <si>
-    <t xml:space="preserve">shifa@gamil.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fairytale Wedding</t>
   </si>
   <si>
     <t xml:space="preserve">we are looking for a team who can provide a team for wedding preperation for fairytail wedding </t>
   </si>
   <si>
-    <t xml:space="preserve">samreen@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">vintage wedding</t>
   </si>
   <si>
@@ -929,9 +759,6 @@
     <t xml:space="preserve">8 year</t>
   </si>
   <si>
-    <t xml:space="preserve">anendra@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">theame birthday for kid </t>
   </si>
   <si>
@@ -941,9 +768,6 @@
     <t xml:space="preserve">dotnet developer</t>
   </si>
   <si>
-    <t xml:space="preserve">happy@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">theame birthday party</t>
   </si>
   <si>
@@ -953,9 +777,6 @@
     <t xml:space="preserve">tester</t>
   </si>
   <si>
-    <t xml:space="preserve">chaitanya@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baby Shower</t>
   </si>
   <si>
@@ -965,43 +786,28 @@
     <t xml:space="preserve">2 year</t>
   </si>
   <si>
-    <t xml:space="preserve">afreen@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office party</t>
   </si>
   <si>
     <t xml:space="preserve">we are having a office party for official purpuse </t>
   </si>
   <si>
-    <t xml:space="preserve">tejaswini@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">corporate meeting</t>
   </si>
   <si>
     <t xml:space="preserve">we are looking for a team who can provide us a classic meeting environment</t>
   </si>
   <si>
-    <t xml:space="preserve">pushpendra@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">sport event</t>
   </si>
   <si>
     <t xml:space="preserve">we are looking for a team who provide good hospitality to our guests</t>
   </si>
   <si>
-    <t xml:space="preserve">anu@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get Togather</t>
   </si>
   <si>
     <t xml:space="preserve">we need only catering service for a small homely get togather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anand@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">exhibition</t>
@@ -1059,8 +865,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1105,7 +913,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1120,6 +928,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1141,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,7 +966,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.86"/>
@@ -1322,365 +1134,363 @@
       <c r="L4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>45</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="I13" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
@@ -1689,226 +1499,226 @@
         <v>35</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="I15" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="J15" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="J17" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>41</v>
@@ -1917,48 +1727,48 @@
         <v>17</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>19</v>
@@ -1967,68 +1777,68 @@
         <v>32</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>173</v>
+        <v>130</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>28</v>
@@ -2040,19 +1850,19 @@
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>23</v>
@@ -2060,40 +1870,40 @@
       <c r="L22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>177</v>
+      <c r="M22" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>23</v>
@@ -2101,40 +1911,40 @@
       <c r="L23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>181</v>
+      <c r="M23" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>35</v>
@@ -2142,40 +1952,40 @@
       <c r="L24" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="0" t="s">
-        <v>186</v>
+      <c r="M24" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>23</v>
@@ -2184,203 +1994,203 @@
         <v>47</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>198</v>
+        <v>57</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>203</v>
+        <v>66</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>207</v>
+        <v>76</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>212</v>
+        <v>84</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>23</v>
@@ -2388,34 +2198,34 @@
       <c r="L30" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>216</v>
+      <c r="M30" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>33</v>
@@ -2429,34 +2239,34 @@
       <c r="L31" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>219</v>
+      <c r="M31" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>45</v>
@@ -2468,367 +2278,367 @@
         <v>23</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>223</v>
+        <v>57</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I33" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>226</v>
+        <v>66</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>231</v>
+        <v>76</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>235</v>
+        <v>84</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>239</v>
+        <v>92</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>243</v>
+        <v>98</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="I39" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>45</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>22</v>
@@ -2837,139 +2647,158 @@
         <v>35</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>231</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="I43" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>33</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M20" r:id="rId1" display="shradda@mail.com"/>
+    <hyperlink ref="M21" r:id="rId2" display="nithya@gmail.com"/>
+    <hyperlink ref="M22" r:id="rId3" display="poornima@gmail.com"/>
+    <hyperlink ref="M23" r:id="rId4" display="chethana@gmail.com"/>
+    <hyperlink ref="M24" r:id="rId5" display="akshar@gmail.com"/>
+    <hyperlink ref="M26" r:id="rId6" display="nithya@gmail.com"/>
+    <hyperlink ref="M27" r:id="rId7" display="poornima@gmail.com"/>
+    <hyperlink ref="M28" r:id="rId8" display="chethana@gmail.com"/>
+    <hyperlink ref="M29" r:id="rId9" display="akshar@gmail.com"/>
+    <hyperlink ref="M30" r:id="rId10" display="nithya@gmail.com"/>
+    <hyperlink ref="M31" r:id="rId11" display="poornima@gmail.com"/>
+    <hyperlink ref="M32" r:id="rId12" display="chethana@gmail.com"/>
+    <hyperlink ref="M33" r:id="rId13" display="akshar@gmail.com"/>
+    <hyperlink ref="M34" r:id="rId14" display="nithya@gmail.com"/>
+    <hyperlink ref="M35" r:id="rId15" display="poornima@gmail.com"/>
+    <hyperlink ref="M36" r:id="rId16" display="chethana@gmail.com"/>
+    <hyperlink ref="M37" r:id="rId17" display="akshar@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/idea-service/src/main/resources/idea-service.xlsx
+++ b/idea-service/src/main/resources/idea-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="241">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">open</t>
   </si>
   <si>
-    <t xml:space="preserve">Software engineer</t>
+    <t xml:space="preserve">software engineer</t>
   </si>
   <si>
     <t xml:space="preserve">5 years</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">$30</t>
   </si>
   <si>
-    <t xml:space="preserve">Systems analyst</t>
+    <t xml:space="preserve">systems analyst</t>
   </si>
   <si>
     <t xml:space="preserve">4 years</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$40</t>
   </si>
   <si>
-    <t xml:space="preserve">Business analyst</t>
+    <t xml:space="preserve">business analyst</t>
   </si>
   <si>
     <t xml:space="preserve">2 years</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">$10</t>
   </si>
   <si>
-    <t xml:space="preserve">Technical support</t>
+    <t xml:space="preserve">technical support</t>
   </si>
   <si>
     <t xml:space="preserve">3 years</t>
   </si>
   <si>
-    <t xml:space="preserve">MicrosoftFlow,Tech Savvy</t>
+    <t xml:space="preserve">microsoftflow,tech savvy</t>
   </si>
   <si>
     <t xml:space="preserve">6 people</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">$20</t>
   </si>
   <si>
-    <t xml:space="preserve">Network engineer</t>
+    <t xml:space="preserve">network engineer</t>
   </si>
   <si>
     <t xml:space="preserve">9 years</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">$50</t>
   </si>
   <si>
-    <t xml:space="preserve">Technical sales</t>
+    <t xml:space="preserve">technical sales</t>
   </si>
   <si>
     <t xml:space="preserve">1 year</t>
@@ -291,7 +291,7 @@
     <t xml:space="preserve">$60</t>
   </si>
   <si>
-    <t xml:space="preserve">Project manager</t>
+    <t xml:space="preserve">project manager</t>
   </si>
   <si>
     <t xml:space="preserve">neo4j,cloud,cloud</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">$120</t>
   </si>
   <si>
-    <t xml:space="preserve">Software tester</t>
+    <t xml:space="preserve">software tester</t>
   </si>
   <si>
     <t xml:space="preserve">core java,json</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">Energetic,Dart</t>
+    <t xml:space="preserve">energetic,dart</t>
   </si>
   <si>
     <t xml:space="preserve">Srinagar</t>
@@ -429,7 +429,7 @@
     <t xml:space="preserve">7 years</t>
   </si>
   <si>
-    <t xml:space="preserve">Apache Nifi,Flexibility</t>
+    <t xml:space="preserve">apache,nifi,flexibility</t>
   </si>
   <si>
     <t xml:space="preserve">bigdata</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">$70</t>
   </si>
   <si>
-    <t xml:space="preserve">Svelte,Apple MDM</t>
+    <t xml:space="preserve">svelte,apple mdm</t>
   </si>
   <si>
     <t xml:space="preserve">8 people</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">6 years</t>
   </si>
   <si>
-    <t xml:space="preserve">Kotlin,Jest</t>
+    <t xml:space="preserve">kotlin,jest</t>
   </si>
   <si>
     <t xml:space="preserve">Mumbai</t>
@@ -593,9 +593,6 @@
   <si>
     <t xml:space="preserve">I need to add in [login to view URL] list/workflow history column of current user(approver)profile job position and 
 Change workflow variable "consolidated comments" oslo add field with job position of a approver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network engineer</t>
   </si>
   <si>
     <t xml:space="preserve">poornima@gmail.com</t>
@@ -718,6 +715,9 @@
 - The user can also delete data files</t>
   </si>
   <si>
+    <t xml:space="preserve">apache nifi,flexibility</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kolkata</t>
   </si>
   <si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t xml:space="preserve">we are looking for a team who can provide a team for wedding preperation for fairytail wedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kotlin,Jest</t>
   </si>
   <si>
     <t xml:space="preserve">vintage wedding</t>
@@ -953,8 +956,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1850,7 +1853,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>120</v>
@@ -1871,15 +1874,15 @@
         <v>11</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>15</v>
@@ -1903,7 +1906,7 @@
         <v>55</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>23</v>
@@ -1912,15 +1915,15 @@
         <v>24</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>118</v>
@@ -1932,7 +1935,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>63</v>
@@ -1944,7 +1947,7 @@
         <v>148</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>35</v>
@@ -1953,21 +1956,21 @@
         <v>36</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>17</v>
@@ -1985,7 +1988,7 @@
         <v>55</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>23</v>
@@ -1999,22 +2002,22 @@
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>111</v>
@@ -2026,7 +2029,7 @@
         <v>74</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>35</v>
@@ -2040,16 +2043,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>17</v>
@@ -2067,7 +2070,7 @@
         <v>55</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>23</v>
@@ -2076,15 +2079,15 @@
         <v>66</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>118</v>
@@ -2108,7 +2111,7 @@
         <v>74</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>35</v>
@@ -2117,15 +2120,15 @@
         <v>76</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>118</v>
@@ -2137,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>43</v>
@@ -2149,7 +2152,7 @@
         <v>55</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>35</v>
@@ -2158,15 +2161,15 @@
         <v>84</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
@@ -2184,7 +2187,7 @@
         <v>53</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>21</v>
@@ -2219,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>63</v>
@@ -2240,7 +2243,7 @@
         <v>47</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>17</v>
@@ -2281,7 +2284,7 @@
         <v>57</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,7 +2298,7 @@
         <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>17</v>
@@ -2307,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>55</v>
@@ -2322,30 +2325,30 @@
         <v>66</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>147</v>
@@ -2368,10 +2371,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>118</v>
@@ -2383,7 +2386,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>19</v>
@@ -2404,15 +2407,15 @@
         <v>84</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>118</v>
@@ -2424,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>31</v>
@@ -2445,15 +2448,15 @@
         <v>92</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>118</v>
@@ -2465,10 +2468,10 @@
         <v>17</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>82</v>
@@ -2486,15 +2489,15 @@
         <v>98</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>118</v>
@@ -2506,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>53</v>
@@ -2532,10 +2535,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>118</v>
@@ -2553,7 +2556,7 @@
         <v>63</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>148</v>
@@ -2573,10 +2576,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>118</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>118</v>
@@ -2655,22 +2658,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>19</v>
@@ -2696,16 +2699,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>17</v>
@@ -2717,7 +2720,7 @@
         <v>111</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>55</v>
@@ -2737,16 +2740,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>17</v>

--- a/idea-service/src/main/resources/idea-service.xlsx
+++ b/idea-service/src/main/resources/idea-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="252">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">poatedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience1</t>
   </si>
   <si>
     <t xml:space="preserve">Modify a custom media player based on tkinter python </t>
@@ -102,6 +108,15 @@
     <t xml:space="preserve">pratyusha@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">business analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp,pycharm,pycharm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magento 2 Olegnax bug fix </t>
   </si>
   <si>
@@ -117,9 +132,6 @@
     <t xml:space="preserve">systems analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">4 years</t>
-  </si>
-  <si>
     <t xml:space="preserve">c++,springmvc</t>
   </si>
   <si>
@@ -133,6 +145,15 @@
   </si>
   <si>
     <t xml:space="preserve">rajni@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apache,nifi,flexibility</t>
   </si>
   <si>
     <t xml:space="preserve">Create a window service to logon the windows user 
@@ -149,9 +170,6 @@
     <t xml:space="preserve">$40</t>
   </si>
   <si>
-    <t xml:space="preserve">business analyst</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years</t>
   </si>
   <si>
@@ -165,6 +183,15 @@
   </si>
   <si>
     <t xml:space="preserve">blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svelte,apple mdm</t>
   </si>
   <si>
     <t xml:space="preserve"> Build custom framework included 3rd party framework 
@@ -182,12 +209,6 @@
     <t xml:space="preserve">$10</t>
   </si>
   <si>
-    <t xml:space="preserve">technical support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 years</t>
-  </si>
-  <si>
     <t xml:space="preserve">microsoftflow,tech savvy</t>
   </si>
   <si>
@@ -201,6 +222,15 @@
   </si>
   <si>
     <t xml:space="preserve">soumya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pycharm,eventmgmt</t>
   </si>
   <si>
     <t xml:space="preserve">Website HTML 5 pages </t>
@@ -219,9 +249,6 @@
     <t xml:space="preserve">network engineer</t>
   </si>
   <si>
-    <t xml:space="preserve">9 years</t>
-  </si>
-  <si>
     <t xml:space="preserve">cisco,azure</t>
   </si>
   <si>
@@ -229,6 +256,15 @@
   </si>
   <si>
     <t xml:space="preserve">kiran@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kotlin,jest</t>
   </si>
   <si>
     <t xml:space="preserve">Need a website for my new recruitment firm and 
@@ -245,9 +281,6 @@
     <t xml:space="preserve">technical sales</t>
   </si>
   <si>
-    <t xml:space="preserve">1 year</t>
-  </si>
-  <si>
     <t xml:space="preserve">kafka,rabbitmq</t>
   </si>
   <si>
@@ -258,6 +291,12 @@
   </si>
   <si>
     <t xml:space="preserve">cybersecurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile app developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html,javascript</t>
   </si>
   <si>
     <t xml:space="preserve">develop SaaS solution to our website </t>
@@ -297,6 +336,9 @@
     <t xml:space="preserve">shubha@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">core java,json</t>
+  </si>
+  <si>
     <t xml:space="preserve">Real estate finder</t>
   </si>
   <si>
@@ -314,13 +356,16 @@
     <t xml:space="preserve">software tester</t>
   </si>
   <si>
-    <t xml:space="preserve">core java,json</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chandigarh</t>
   </si>
   <si>
     <t xml:space="preserve">IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energetic,dart</t>
   </si>
   <si>
     <t xml:space="preserve">Robotics Automation </t>
@@ -344,6 +389,9 @@
   </si>
   <si>
     <t xml:space="preserve">akansha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 years</t>
   </si>
   <si>
     <t xml:space="preserve">Set up a cloud based instance of a piece of windows
@@ -364,9 +412,6 @@
     <t xml:space="preserve">analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">energetic,dart</t>
-  </si>
-  <si>
     <t xml:space="preserve">Srinagar</t>
   </si>
   <si>
@@ -374,6 +419,9 @@
   </si>
   <si>
     <t xml:space="preserve">hindu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apache nifi,flexibility</t>
   </si>
   <si>
     <t xml:space="preserve">Wordpress - WP Bakery Responsive issues with
@@ -389,12 +437,6 @@
     <t xml:space="preserve">data analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">8 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp,pycharm,pycharm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ranchi</t>
   </si>
   <si>
@@ -417,12 +459,6 @@
     <t xml:space="preserve">$90</t>
   </si>
   <si>
-    <t xml:space="preserve">7 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apache,nifi,flexibility</t>
-  </si>
-  <si>
     <t xml:space="preserve">bigdata</t>
   </si>
   <si>
@@ -439,9 +475,6 @@
     <t xml:space="preserve">$70</t>
   </si>
   <si>
-    <t xml:space="preserve">svelte,apple mdm</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 people</t>
   </si>
   <si>
@@ -461,9 +494,6 @@
     <t xml:space="preserve">$80</t>
   </si>
   <si>
-    <t xml:space="preserve">pycharm,eventmgmt</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 people</t>
   </si>
   <si>
@@ -480,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">6 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kotlin,jest</t>
   </si>
   <si>
     <t xml:space="preserve">Mumbai</t>
@@ -496,9 +523,6 @@
   </si>
   <si>
     <t xml:space="preserve">Looking for someone to manage Google shopping and Adwords for our E-commerce store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">html,javascript</t>
   </si>
   <si>
     <t xml:space="preserve">2 people</t>
@@ -551,9 +575,6 @@
 6. Update the google map in Contact US page.</t>
   </si>
   <si>
-    <t xml:space="preserve">web designer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kohima</t>
   </si>
   <si>
@@ -565,9 +586,6 @@
   <si>
     <t xml:space="preserve">I need an Android and IOS app. I would like it designed and built.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">network admin</t>
   </si>
   <si>
     <t xml:space="preserve">Bhubaneshwar</t>
@@ -649,9 +667,6 @@
     <t xml:space="preserve">$500</t>
   </si>
   <si>
-    <t xml:space="preserve">blockchain developer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hyderabad</t>
   </si>
   <si>
@@ -682,9 +697,6 @@
   <si>
     <t xml:space="preserve">The Virtual Assistant will look after two Managing Partners of a Venture Capital firm based in Australia. The firm manages
  More than $150 million of capital and has investments across Australia, North America, and Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile app developer</t>
   </si>
   <si>
     <t xml:space="preserve">Lucknow</t>
@@ -703,9 +715,6 @@
 - The user can also delete data files</t>
   </si>
   <si>
-    <t xml:space="preserve">apache nifi,flexibility</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kolkata</t>
   </si>
   <si>
@@ -738,6 +747,12 @@
     <t xml:space="preserve">gettogether</t>
   </si>
   <si>
+    <t xml:space="preserve">conference planner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trends,budgeting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fairytale Wedding</t>
   </si>
   <si>
@@ -750,15 +765,18 @@
     <t xml:space="preserve">productlaunch</t>
   </si>
   <si>
+    <t xml:space="preserve">event co-ordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creativity,quality control</t>
+  </si>
+  <si>
     <t xml:space="preserve">vintage wedding</t>
   </si>
   <si>
     <t xml:space="preserve">we are looking for a team who can provide a team for wedding preperation for vintage wedding </t>
   </si>
   <si>
-    <t xml:space="preserve">event co-ordinator</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 year</t>
   </si>
   <si>
@@ -768,64 +786,52 @@
     <t xml:space="preserve">conferencemanagement</t>
   </si>
   <si>
+    <t xml:space="preserve">event analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizational skill,budgeting</t>
+  </si>
+  <si>
     <t xml:space="preserve">theame birthday for kid </t>
   </si>
   <si>
     <t xml:space="preserve">we have a theame of jungle for kid birthday, we require a team for the preperation of birthday party</t>
   </si>
   <si>
-    <t xml:space="preserve">event analyst</t>
-  </si>
-  <si>
     <t xml:space="preserve">quality control,organizational skill</t>
   </si>
   <si>
     <t xml:space="preserve">wedding</t>
   </si>
   <si>
+    <t xml:space="preserve">catering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budgeting,quality control</t>
+  </si>
+  <si>
     <t xml:space="preserve">theame birthday party</t>
   </si>
   <si>
     <t xml:space="preserve">we want to arrange a theame party based on bollywood </t>
   </si>
   <si>
-    <t xml:space="preserve">conference planner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trends,budgeting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baby Shower</t>
   </si>
   <si>
     <t xml:space="preserve">i want to celebrate a baby shower party at my house with minimum number of arrangment</t>
   </si>
   <si>
-    <t xml:space="preserve">2 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creativity,quality control</t>
-  </si>
-  <si>
     <t xml:space="preserve">Office party</t>
   </si>
   <si>
     <t xml:space="preserve">we are having a office party for official purpuse </t>
   </si>
   <si>
-    <t xml:space="preserve">organizational skill,budgeting</t>
-  </si>
-  <si>
     <t xml:space="preserve">corporate meeting</t>
   </si>
   <si>
     <t xml:space="preserve">we are looking for a team who can provide us a classic meeting environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">budgeting,quality control</t>
   </si>
   <si>
     <t xml:space="preserve">sport event</t>
@@ -865,11 +871,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -885,12 +892,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -948,7 +949,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,19 +958,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -990,30 +987,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P45" activeCellId="0" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1049,1767 +1051,2199 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="L3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>52</v>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>82</v>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>94</v>
+      <c r="J10" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>98</v>
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>110</v>
+        <v>50</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>117</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>149</v>
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="J19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>159</v>
+      <c r="J20" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>160</v>
+        <v>131</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>163</v>
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>164</v>
+        <v>61</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>165</v>
+        <v>52</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>168</v>
+      <c r="M22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>171</v>
+        <v>61</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>172</v>
+        <v>131</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>173</v>
+      <c r="A24" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>177</v>
+        <v>125</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>181</v>
+        <v>61</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>185</v>
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>186</v>
+        <v>83</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>165</v>
+        <v>52</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>189</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>190</v>
+        <v>61</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>168</v>
+        <v>39</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>193</v>
+        <v>83</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>172</v>
+        <v>85</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>196</v>
+        <v>19</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>197</v>
+        <v>61</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>177</v>
+        <v>63</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>201</v>
+        <v>23</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>165</v>
+        <v>110</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>206</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>208</v>
+        <v>50</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>177</v>
+        <v>218</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>189</v>
+        <v>129</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>216</v>
+        <v>19</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>208</v>
+        <v>37</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>165</v>
+        <v>225</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>208</v>
+        <v>83</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>168</v>
+        <v>231</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>208</v>
+        <v>61</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>172</v>
+        <v>102</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>238</v>
+        <v>19</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>208</v>
+        <v>152</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>216</v>
+        <v>19</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>208</v>
+        <v>50</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>208</v>
+        <v>152</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>129</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>208</v>
+        <v>23</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>184</v>
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>222</v>
+        <v>19</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>208</v>
+        <v>61</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>129</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>208</v>
+        <v>37</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N45" s="3"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N46" s="3"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N47" s="3"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N55" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
